--- a/public/sheets/students.xlsx
+++ b/public/sheets/students.xlsx
@@ -89,7 +89,7 @@
     <t>Nguyễn Thị C</t>
   </si>
   <si>
-    <t>00008723964</t>
+    <t>000087239640</t>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
@@ -432,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +453,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -467,8 +470,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -481,8 +487,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -495,8 +504,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -509,8 +521,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -523,8 +538,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -537,8 +555,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -551,8 +572,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -565,8 +589,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -579,8 +606,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -593,8 +623,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -606,6 +639,9 @@
       </c>
       <c r="D12" t="s">
         <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/sheets/students.xlsx
+++ b/public/sheets/students.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quanlyhs\public\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9800675-1907-45FC-933C-528A9351A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>000082376456</t>
   </si>
@@ -93,19 +98,74 @@
   </si>
   <si>
     <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>000082367434</t>
+  </si>
+  <si>
+    <t>Trần Thị D</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>12.06</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>11.09</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>11.04</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>11.05</t>
+  </si>
+  <si>
+    <t>2006-01-15</t>
+  </si>
+  <si>
+    <t>2006-03-17</t>
+  </si>
+  <si>
+    <t>2006-07-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -131,14 +191,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,180 +498,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1205</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1205</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1205</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>1205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1205</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>1205</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>1205</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
-        <v>1205</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>1206</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1206</v>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -610,15 +682,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>1206</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -627,35 +699,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>1205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>